--- a/Documentation/Data/mBasic.xlsx
+++ b/Documentation/Data/mBasic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -739,9 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -843,7 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
